--- a/Experiments/Measurements/Two Banners Back 2 Back/V Path/Antenna_4/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Back 2 Back/V Path/Antenna_4/Transformed_Coordinates.xlsx
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>26.42210506598517</v>
+        <v>26.4221050659853</v>
       </c>
       <c r="H2" t="n">
-        <v>226.1137036537222</v>
+        <v>226.1137036537223</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>27.81645815412877</v>
+        <v>27.816458154129</v>
       </c>
       <c r="H3" t="n">
         <v>218.0428843875215</v>
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-8.669330251338661</v>
+        <v>-8.669330251338637</v>
       </c>
       <c r="H4" t="n">
-        <v>205.5737227790581</v>
+        <v>205.5737227790582</v>
       </c>
     </row>
     <row r="5">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-40.08434662153712</v>
+        <v>-40.08434662153702</v>
       </c>
       <c r="H5" t="n">
         <v>208.8245129120031</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-3.000318170001719</v>
+        <v>-3.000318170001606</v>
       </c>
       <c r="H6" t="n">
         <v>176.384229377311</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>32.72817203623713</v>
+        <v>32.7281720362373</v>
       </c>
       <c r="H7" t="n">
-        <v>206.379238705925</v>
+        <v>206.3792387059252</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>112.0243055729342</v>
+        <v>112.0243055729344</v>
       </c>
       <c r="H8" t="n">
         <v>157.8683423271435</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>104.7428733950043</v>
+        <v>104.7428733950045</v>
       </c>
       <c r="H9" t="n">
-        <v>149.393143545803</v>
+        <v>149.3931435458031</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>94.3064760888789</v>
+        <v>94.30647608887907</v>
       </c>
       <c r="H10" t="n">
-        <v>140.7882186231881</v>
+        <v>140.7882186231882</v>
       </c>
     </row>
     <row r="11">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-30.63845723467657</v>
+        <v>-30.63845723467646</v>
       </c>
       <c r="H11" t="n">
         <v>159.9542340935683</v>
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-2.74830280460615</v>
+        <v>-2.748302804606036</v>
       </c>
       <c r="H12" t="n">
         <v>141.367536397287</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>66.55118310439143</v>
+        <v>66.5511831043916</v>
       </c>
       <c r="H13" t="n">
-        <v>171.2323041636945</v>
+        <v>171.2323041636947</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>131.1647391513337</v>
+        <v>131.1647391513339</v>
       </c>
       <c r="H14" t="n">
-        <v>111.1212570397236</v>
+        <v>111.1212570397237</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>114.3338859146934</v>
+        <v>114.3338859146936</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7552003949916</v>
+        <v>107.7552003949917</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>94.43343008279497</v>
+        <v>94.43343008279514</v>
       </c>
       <c r="H16" t="n">
-        <v>105.7097320755227</v>
+        <v>105.7097320755228</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>20.31077657632781</v>
+        <v>20.31077657632792</v>
       </c>
       <c r="H17" t="n">
-        <v>126.0367188274325</v>
+        <v>126.0367188274324</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>69.74336120320719</v>
+        <v>69.74336120320727</v>
       </c>
       <c r="H18" t="n">
-        <v>94.85981007414776</v>
+        <v>94.85981007414769</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>133.5487503469768</v>
+        <v>133.548750346977</v>
       </c>
       <c r="H19" t="n">
-        <v>98.53771696004901</v>
+        <v>98.53771696004908</v>
       </c>
     </row>
     <row r="20">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>134.1463119757343</v>
+        <v>134.1463119757346</v>
       </c>
       <c r="H20" t="n">
-        <v>92.0018400128362</v>
+        <v>92.00184001283625</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>113.8954163294875</v>
+        <v>113.8954163294877</v>
       </c>
       <c r="H21" t="n">
-        <v>89.68187060299874</v>
+        <v>89.6818706029989</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>94.19314249396025</v>
+        <v>94.19314249396042</v>
       </c>
       <c r="H22" t="n">
-        <v>87.00970321169048</v>
+        <v>87.00970321169062</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>74.350895824905</v>
+        <v>74.35089582490507</v>
       </c>
       <c r="H23" t="n">
-        <v>84.50547455379896</v>
+        <v>84.50547455379889</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>88.9060540208464</v>
+        <v>88.90605402084606</v>
       </c>
       <c r="H24" t="n">
-        <v>95.39995939206634</v>
+        <v>95.39995939206608</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>21.76148676180945</v>
+        <v>21.76148676180949</v>
       </c>
       <c r="H25" t="n">
-        <v>199.8348402837719</v>
+        <v>199.834840283772</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>74.79401368333076</v>
+        <v>74.79401368333092</v>
       </c>
       <c r="H26" t="n">
-        <v>185.8603160918347</v>
+        <v>185.8603160918348</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>75.39885528697617</v>
+        <v>75.39885528697639</v>
       </c>
       <c r="H29" t="n">
-        <v>160.6511161154212</v>
+        <v>160.6511161154213</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>22.54838219732762</v>
+        <v>22.54838219732765</v>
       </c>
       <c r="H30" t="n">
-        <v>152.0011918891487</v>
+        <v>152.0011918891489</v>
       </c>
     </row>
     <row r="31">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>66.37902472624141</v>
+        <v>66.37902472624164</v>
       </c>
       <c r="H31" t="n">
         <v>205.6641901842086</v>
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>16.90554444167823</v>
+        <v>16.90554444167815</v>
       </c>
       <c r="H33" t="n">
-        <v>179.6091677174396</v>
+        <v>179.6091677174393</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>89.50311647460239</v>
+        <v>89.50311647460205</v>
       </c>
       <c r="H34" t="n">
-        <v>114.5405787957643</v>
+        <v>114.5405787957641</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>124.3118932304715</v>
+        <v>124.3118932304716</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6879378896695</v>
+        <v>114.6879378896696</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>74.53101373219413</v>
+        <v>74.53101373219383</v>
       </c>
       <c r="H37" t="n">
-        <v>137.2915073673243</v>
+        <v>137.291507367324</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>15.96134810204049</v>
+        <v>15.96134810204051</v>
       </c>
       <c r="H39" t="n">
-        <v>199.1588339215682</v>
+        <v>199.1588339215684</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>99.37076313022254</v>
+        <v>99.37076313022246</v>
       </c>
       <c r="H40" t="n">
-        <v>94.08140857236077</v>
+        <v>94.08140857236057</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>17.53555858019621</v>
+        <v>17.53555858019624</v>
       </c>
       <c r="H42" t="n">
-        <v>183.9751938408755</v>
+        <v>183.9751938408757</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>89.50420734268732</v>
+        <v>89.50420734268698</v>
       </c>
       <c r="H44" t="n">
-        <v>88.08030574592654</v>
+        <v>88.08030574592625</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>103.9553112326262</v>
+        <v>103.9553112326263</v>
       </c>
       <c r="H47" t="n">
-        <v>101.6304979492246</v>
+        <v>101.6304979492247</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>78.64388990093019</v>
+        <v>78.64388990093033</v>
       </c>
       <c r="H49" t="n">
-        <v>164.0318739333088</v>
+        <v>164.0318739333089</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>89.03161133124659</v>
+        <v>89.03161133124625</v>
       </c>
       <c r="H50" t="n">
-        <v>85.97267188928873</v>
+        <v>85.97267188928843</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>114.502619575962</v>
+        <v>114.5026195759622</v>
       </c>
       <c r="H51" t="n">
-        <v>88.91065783278442</v>
+        <v>88.91065783278457</v>
       </c>
     </row>
     <row r="52">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>-12.64828026067467</v>
+        <v>-12.6482802606749</v>
       </c>
       <c r="H52" t="n">
         <v>191.5863268292634</v>
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>19.99104825725282</v>
+        <v>19.99104825725242</v>
       </c>
       <c r="H53" t="n">
-        <v>198.0968305987824</v>
+        <v>198.0968305987823</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>31.06844273704298</v>
+        <v>31.06844273704299</v>
       </c>
       <c r="H54" t="n">
-        <v>191.8955342995583</v>
+        <v>191.8955342995584</v>
       </c>
     </row>
     <row r="55">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>101.7730017913951</v>
+        <v>101.7730017913949</v>
       </c>
       <c r="H57" t="n">
         <v>156.9011311862049</v>
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>35.31900873823668</v>
+        <v>35.31900873823657</v>
       </c>
       <c r="H58" t="n">
-        <v>166.0246548277446</v>
+        <v>166.0246548277445</v>
       </c>
     </row>
     <row r="59">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>81.14903847812032</v>
+        <v>81.14903847811991</v>
       </c>
       <c r="H59" t="n">
-        <v>138.3885783533607</v>
+        <v>138.3885783533606</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.36112874865497</v>
+        <v>5.361128748655073</v>
       </c>
       <c r="H60" t="n">
-        <v>152.0177192202976</v>
+        <v>152.0177192202977</v>
       </c>
     </row>
     <row r="61">
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>132.8176039038526</v>
+        <v>132.8176039038525</v>
       </c>
       <c r="H63" t="n">
-        <v>102.2600836207499</v>
+        <v>102.2600836207498</v>
       </c>
     </row>
     <row r="64">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>139.7137710278824</v>
+        <v>139.7137710278823</v>
       </c>
       <c r="H64" t="n">
-        <v>80.06558852300336</v>
+        <v>80.06558852300327</v>
       </c>
     </row>
     <row r="65">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>109.8262597332989</v>
+        <v>109.8262597332985</v>
       </c>
       <c r="H65" t="n">
-        <v>82.84074820409974</v>
+        <v>82.84074820409955</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>97.75788028815715</v>
+        <v>97.75788028815731</v>
       </c>
       <c r="H66" t="n">
-        <v>80.17189266257931</v>
+        <v>80.17189266257941</v>
       </c>
     </row>
     <row r="67">
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>140.1328496391832</v>
+        <v>140.132849639183</v>
       </c>
       <c r="H69" t="n">
-        <v>62.88484520482705</v>
+        <v>62.88484520482692</v>
       </c>
     </row>
     <row r="70">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>140.0818983538088</v>
+        <v>140.0818983538087</v>
       </c>
       <c r="H70" t="n">
-        <v>52.62138943157275</v>
+        <v>52.6213894315726</v>
       </c>
     </row>
     <row r="71">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>119.630261211607</v>
+        <v>119.6302612116067</v>
       </c>
       <c r="H71" t="n">
-        <v>50.71564952358348</v>
+        <v>50.71564952358319</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>99.87629849355901</v>
+        <v>99.87629849355918</v>
       </c>
       <c r="H72" t="n">
-        <v>48.43961790072844</v>
+        <v>48.43961790072859</v>
       </c>
     </row>
     <row r="73">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>104.3338337734068</v>
+        <v>104.3338337734071</v>
       </c>
       <c r="H74" t="n">
-        <v>93.01442751632062</v>
+        <v>93.01442751632082</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>89.0613687796677</v>
+        <v>89.06136877966787</v>
       </c>
       <c r="H75" t="n">
-        <v>48.16267099052951</v>
+        <v>48.16267099052966</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>129.647013039544</v>
+        <v>129.6470130395437</v>
       </c>
       <c r="H76" t="n">
-        <v>50.63735619809005</v>
+        <v>50.63735619808966</v>
       </c>
     </row>
     <row r="77">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>110.0079214762111</v>
+        <v>110.0079214762114</v>
       </c>
       <c r="H77" t="n">
-        <v>48.05452796743932</v>
+        <v>48.05452796743961</v>
       </c>
     </row>
     <row r="78">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>17.10198431696684</v>
+        <v>17.10198431696654</v>
       </c>
       <c r="H78" t="n">
-        <v>186.0883576390741</v>
+        <v>186.0883576390739</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>12.63233939835781</v>
+        <v>12.63233939835777</v>
       </c>
       <c r="H79" t="n">
-        <v>176.2608413574374</v>
+        <v>176.2608413574373</v>
       </c>
     </row>
     <row r="80">
@@ -2835,10 +2835,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>70.59717646807312</v>
+        <v>70.59717646807351</v>
       </c>
       <c r="H80" t="n">
-        <v>155.9848636380389</v>
+        <v>155.984863638039</v>
       </c>
     </row>
     <row r="81">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>-29.97418432943771</v>
+        <v>-29.97418432943794</v>
       </c>
       <c r="H81" t="n">
-        <v>170.5121036332889</v>
+        <v>170.5121036332888</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>85.5424999117354</v>
+        <v>85.54249991173558</v>
       </c>
       <c r="H82" t="n">
-        <v>93.20156074366052</v>
+        <v>93.20156074366061</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>90.30135465568921</v>
+        <v>90.30135465568938</v>
       </c>
       <c r="H83" t="n">
-        <v>134.3106358146607</v>
+        <v>134.3106358146608</v>
       </c>
     </row>
     <row r="84">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>54.23565204489658</v>
+        <v>54.23565204489619</v>
       </c>
       <c r="H85" t="n">
-        <v>180.1971902670507</v>
+        <v>180.1971902670505</v>
       </c>
     </row>
     <row r="86">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.422157792896217</v>
+        <v>5.422157792896374</v>
       </c>
       <c r="H86" t="n">
-        <v>186.3970959788293</v>
+        <v>186.3970959788296</v>
       </c>
     </row>
     <row r="87">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>115.5848725387862</v>
+        <v>115.5848725387858</v>
       </c>
       <c r="H88" t="n">
-        <v>100.4113503319234</v>
+        <v>100.4113503319232</v>
       </c>
     </row>
     <row r="89">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>35.28283472571733</v>
+        <v>35.28283472571753</v>
       </c>
       <c r="H90" t="n">
-        <v>137.8151957059943</v>
+        <v>137.8151957059944</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>91.26559852748622</v>
+        <v>91.26559852748615</v>
       </c>
       <c r="H91" t="n">
-        <v>143.8432582059207</v>
+        <v>143.8432582059204</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>97.52575269565247</v>
+        <v>97.52575269565264</v>
       </c>
       <c r="H92" t="n">
-        <v>88.51977168675229</v>
+        <v>88.51977168675236</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>105.0025292672384</v>
+        <v>105.0025292672383</v>
       </c>
       <c r="H93" t="n">
-        <v>98.48422835545661</v>
+        <v>98.48422835545654</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>93.09573159498402</v>
+        <v>93.09573159498386</v>
       </c>
       <c r="H94" t="n">
-        <v>59.36092102287289</v>
+        <v>59.36092102287275</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>130.2256233946057</v>
+        <v>130.2256233946054</v>
       </c>
       <c r="H95" t="n">
-        <v>56.5864349310333</v>
+        <v>56.58643493103296</v>
       </c>
     </row>
     <row r="96">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>109.6468329916383</v>
+        <v>109.6468329916387</v>
       </c>
       <c r="H96" t="n">
-        <v>52.82063553233348</v>
+        <v>52.82063553233375</v>
       </c>
     </row>
     <row r="97">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>79.22062354089124</v>
+        <v>79.22062354089138</v>
       </c>
       <c r="H97" t="n">
-        <v>84.04200693997961</v>
+        <v>84.04200693997976</v>
       </c>
     </row>
     <row r="98">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>130.1500776622327</v>
+        <v>130.1500776622325</v>
       </c>
       <c r="H99" t="n">
-        <v>68.35204063598958</v>
+        <v>68.3520406359893</v>
       </c>
     </row>
     <row r="100">
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>109.337518439965</v>
+        <v>109.3375184399653</v>
       </c>
       <c r="H100" t="n">
-        <v>60.51499698162045</v>
+        <v>60.51499698162068</v>
       </c>
     </row>
     <row r="101">
